--- a/data/ESG_DATA_S&P500.xlsx
+++ b/data/ESG_DATA_S&P500.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/nmf376_alumni_ku_dk/Documents/DatØk3/Bachelorprojekt_repo/BachelorThesis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e69baa2e9a4c091/Dokumenter/GitHub/BachelorThesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{35EFEB3D-A14C-B849-94FA-EC5B25F0D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:4000b_{35EFEB3D-A14C-B849-94FA-EC5B25F0D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C86EEA4-0A2A-4633-B19B-0589B64A577F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28240" windowHeight="15880"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4213,7 +4226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4261,7 +4274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4556,38 +4569,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E456" sqref="E456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" customWidth="1"/>
-    <col min="20" max="256" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" customWidth="1"/>
+    <col min="20" max="256" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>684</v>
       </c>
@@ -4646,7 +4659,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>664</v>
       </c>
@@ -4705,7 +4718,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4764,7 +4777,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>901</v>
       </c>
@@ -4823,7 +4836,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -4882,7 +4895,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -4941,7 +4954,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>834</v>
       </c>
@@ -5000,7 +5013,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1275</v>
       </c>
@@ -5059,7 +5072,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1334</v>
       </c>
@@ -5118,7 +5131,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1372</v>
       </c>
@@ -5177,7 +5190,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>992</v>
       </c>
@@ -5236,7 +5249,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>964</v>
       </c>
@@ -5295,7 +5308,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1011</v>
       </c>
@@ -5354,7 +5367,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>749</v>
       </c>
@@ -5413,7 +5426,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5472,7 +5485,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1020</v>
       </c>
@@ -5590,7 +5603,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1067</v>
       </c>
@@ -5649,7 +5662,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1375</v>
       </c>
@@ -5708,7 +5721,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5767,7 +5780,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>484</v>
       </c>
@@ -5826,7 +5839,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -5885,7 +5898,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>859</v>
       </c>
@@ -5944,7 +5957,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1309</v>
       </c>
@@ -6003,7 +6016,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>952</v>
       </c>
@@ -6062,7 +6075,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1388</v>
       </c>
@@ -6121,7 +6134,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>880</v>
       </c>
@@ -6180,7 +6193,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1185</v>
       </c>
@@ -6239,7 +6252,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>485</v>
       </c>
@@ -6298,7 +6311,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -6357,7 +6370,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>803</v>
       </c>
@@ -6416,7 +6429,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>774</v>
       </c>
@@ -6475,7 +6488,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -6534,7 +6547,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1395</v>
       </c>
@@ -6593,7 +6606,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>779</v>
       </c>
@@ -6652,7 +6665,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>702</v>
       </c>
@@ -6711,7 +6724,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -6770,7 +6783,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -6829,7 +6842,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>234</v>
       </c>
@@ -6888,7 +6901,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>983</v>
       </c>
@@ -6947,7 +6960,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>456</v>
       </c>
@@ -7006,7 +7019,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -7065,7 +7078,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1184</v>
       </c>
@@ -7124,7 +7137,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>550</v>
       </c>
@@ -7242,7 +7255,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>819</v>
       </c>
@@ -7301,7 +7314,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>624</v>
       </c>
@@ -7360,7 +7373,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>557</v>
       </c>
@@ -7419,7 +7432,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1147</v>
       </c>
@@ -7478,7 +7491,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>839</v>
       </c>
@@ -7537,7 +7550,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>477</v>
       </c>
@@ -7596,7 +7609,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1164</v>
       </c>
@@ -7655,7 +7668,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>524</v>
       </c>
@@ -7714,7 +7727,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -7773,7 +7786,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -7832,7 +7845,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>908</v>
       </c>
@@ -7891,7 +7904,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>900</v>
       </c>
@@ -7950,7 +7963,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>383</v>
       </c>
@@ -8009,7 +8022,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1052</v>
       </c>
@@ -8068,7 +8081,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -8127,7 +8140,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -8186,7 +8199,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>343</v>
       </c>
@@ -8245,7 +8258,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -8304,7 +8317,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -8363,7 +8376,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -8422,7 +8435,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>287</v>
       </c>
@@ -8481,7 +8494,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -8540,7 +8553,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -8599,7 +8612,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -8658,7 +8671,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>267</v>
       </c>
@@ -8717,7 +8730,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>886</v>
       </c>
@@ -8776,7 +8789,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>675</v>
       </c>
@@ -8835,7 +8848,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>322</v>
       </c>
@@ -8894,7 +8907,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1348</v>
       </c>
@@ -8953,7 +8966,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -9012,7 +9025,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -9071,7 +9084,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>760</v>
       </c>
@@ -9130,7 +9143,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>327</v>
       </c>
@@ -9189,7 +9202,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1016</v>
       </c>
@@ -9248,7 +9261,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1352</v>
       </c>
@@ -9307,7 +9320,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>786</v>
       </c>
@@ -9366,7 +9379,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1195</v>
       </c>
@@ -9425,7 +9438,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>999</v>
       </c>
@@ -9484,7 +9497,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1187</v>
       </c>
@@ -9543,7 +9556,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1159</v>
       </c>
@@ -9602,7 +9615,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>590</v>
       </c>
@@ -9661,7 +9674,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>727</v>
       </c>
@@ -9720,7 +9733,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1080</v>
       </c>
@@ -9779,7 +9792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -9838,7 +9851,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1210</v>
       </c>
@@ -9897,7 +9910,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1097</v>
       </c>
@@ -9956,7 +9969,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -10015,7 +10028,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>994</v>
       </c>
@@ -10074,7 +10087,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1192</v>
       </c>
@@ -10133,7 +10146,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>445</v>
       </c>
@@ -10192,7 +10205,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -10251,7 +10264,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>196</v>
       </c>
@@ -10310,7 +10323,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>608</v>
       </c>
@@ -10369,7 +10382,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1120</v>
       </c>
@@ -10428,7 +10441,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1123</v>
       </c>
@@ -10487,7 +10500,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>490</v>
       </c>
@@ -10546,7 +10559,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>350</v>
       </c>
@@ -10605,7 +10618,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>285</v>
       </c>
@@ -10664,7 +10677,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1096</v>
       </c>
@@ -10723,7 +10736,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>155</v>
       </c>
@@ -10782,7 +10795,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1378</v>
       </c>
@@ -10841,7 +10854,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1326</v>
       </c>
@@ -10900,7 +10913,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>548</v>
       </c>
@@ -10959,7 +10972,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1379</v>
       </c>
@@ -11018,7 +11031,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>135</v>
       </c>
@@ -11077,7 +11090,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1046</v>
       </c>
@@ -11136,7 +11149,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -11195,7 +11208,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>259</v>
       </c>
@@ -11254,7 +11267,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>768</v>
       </c>
@@ -11313,7 +11326,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1193</v>
       </c>
@@ -11372,7 +11385,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>545</v>
       </c>
@@ -11431,7 +11444,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>315</v>
       </c>
@@ -11490,7 +11503,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1373</v>
       </c>
@@ -11549,7 +11562,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1095</v>
       </c>
@@ -11608,7 +11621,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1074</v>
       </c>
@@ -11667,7 +11680,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>638</v>
       </c>
@@ -11726,7 +11739,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>559</v>
       </c>
@@ -11785,7 +11798,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>639</v>
       </c>
@@ -11844,7 +11857,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>653</v>
       </c>
@@ -11903,7 +11916,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1310</v>
       </c>
@@ -11962,7 +11975,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>334</v>
       </c>
@@ -12021,7 +12034,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>495</v>
       </c>
@@ -12080,7 +12093,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>394</v>
       </c>
@@ -12139,7 +12152,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>539</v>
       </c>
@@ -12198,7 +12211,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1089</v>
       </c>
@@ -12257,7 +12270,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1042</v>
       </c>
@@ -12316,7 +12329,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1143</v>
       </c>
@@ -12375,7 +12388,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1198</v>
       </c>
@@ -12434,7 +12447,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>335</v>
       </c>
@@ -12493,7 +12506,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>323</v>
       </c>
@@ -12552,7 +12565,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>775</v>
       </c>
@@ -12611,7 +12624,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>494</v>
       </c>
@@ -12670,7 +12683,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -12729,7 +12742,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>956</v>
       </c>
@@ -12788,7 +12801,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>392</v>
       </c>
@@ -12847,7 +12860,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>562</v>
       </c>
@@ -12906,7 +12919,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1211</v>
       </c>
@@ -12965,7 +12978,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>630</v>
       </c>
@@ -13024,7 +13037,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>303</v>
       </c>
@@ -13083,7 +13096,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -13142,7 +13155,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -13201,7 +13214,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -13260,7 +13273,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1087</v>
       </c>
@@ -13319,7 +13332,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>268</v>
       </c>
@@ -13378,7 +13391,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>134</v>
       </c>
@@ -13437,7 +13450,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1391</v>
       </c>
@@ -13496,7 +13509,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>735</v>
       </c>
@@ -13555,7 +13568,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>201</v>
       </c>
@@ -13614,7 +13627,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -13673,7 +13686,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>500</v>
       </c>
@@ -13732,7 +13745,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -13791,7 +13804,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -13850,7 +13863,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1227</v>
       </c>
@@ -13909,7 +13922,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>738</v>
       </c>
@@ -13968,7 +13981,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1262</v>
       </c>
@@ -14027,7 +14040,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1012</v>
       </c>
@@ -14086,7 +14099,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1127</v>
       </c>
@@ -14145,7 +14158,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1362</v>
       </c>
@@ -14204,7 +14217,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>652</v>
       </c>
@@ -14263,7 +14276,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>958</v>
       </c>
@@ -14322,7 +14335,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1381</v>
       </c>
@@ -14381,7 +14394,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>528</v>
       </c>
@@ -14440,7 +14453,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1332</v>
       </c>
@@ -14499,7 +14512,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1238</v>
       </c>
@@ -14558,7 +14571,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1175</v>
       </c>
@@ -14617,7 +14630,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>710</v>
       </c>
@@ -14676,7 +14689,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>739</v>
       </c>
@@ -14735,7 +14748,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>66</v>
       </c>
@@ -14794,7 +14807,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>543</v>
       </c>
@@ -14853,7 +14866,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>86</v>
       </c>
@@ -14912,7 +14925,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1302</v>
       </c>
@@ -14971,7 +14984,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1232</v>
       </c>
@@ -15030,7 +15043,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1155</v>
       </c>
@@ -15089,7 +15102,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1009</v>
       </c>
@@ -15148,7 +15161,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>799</v>
       </c>
@@ -15207,7 +15220,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>519</v>
       </c>
@@ -15266,7 +15279,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -15325,7 +15338,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>480</v>
       </c>
@@ -15384,7 +15397,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>935</v>
       </c>
@@ -15443,7 +15456,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>961</v>
       </c>
@@ -15502,7 +15515,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>385</v>
       </c>
@@ -15561,7 +15574,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -15620,7 +15633,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1140</v>
       </c>
@@ -15679,7 +15692,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1265</v>
       </c>
@@ -15738,7 +15751,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>228</v>
       </c>
@@ -15797,7 +15810,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1179</v>
       </c>
@@ -15856,7 +15869,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>340</v>
       </c>
@@ -15915,7 +15928,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>692</v>
       </c>
@@ -15974,7 +15987,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>872</v>
       </c>
@@ -16033,7 +16046,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1267</v>
       </c>
@@ -16092,7 +16105,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>693</v>
       </c>
@@ -16151,7 +16164,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>740</v>
       </c>
@@ -16210,7 +16223,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -16269,7 +16282,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>912</v>
       </c>
@@ -16328,7 +16341,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1162</v>
       </c>
@@ -16387,7 +16400,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1118</v>
       </c>
@@ -16446,7 +16459,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1222</v>
       </c>
@@ -16505,7 +16518,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1144</v>
       </c>
@@ -16564,7 +16577,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>831</v>
       </c>
@@ -16623,7 +16636,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>944</v>
       </c>
@@ -16682,7 +16695,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>286</v>
       </c>
@@ -16741,7 +16754,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1321</v>
       </c>
@@ -16800,7 +16813,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1086</v>
       </c>
@@ -16859,7 +16872,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>876</v>
       </c>
@@ -16918,7 +16931,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>321</v>
       </c>
@@ -16977,7 +16990,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>610</v>
       </c>
@@ -17036,7 +17049,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1223</v>
       </c>
@@ -17095,7 +17108,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>130</v>
       </c>
@@ -17154,7 +17167,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>466</v>
       </c>
@@ -17213,7 +17226,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1376</v>
       </c>
@@ -17272,7 +17285,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -17331,7 +17344,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1366</v>
       </c>
@@ -17390,7 +17403,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>948</v>
       </c>
@@ -17449,7 +17462,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -17508,7 +17521,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1296</v>
       </c>
@@ -17567,7 +17580,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>627</v>
       </c>
@@ -17626,7 +17639,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1356</v>
       </c>
@@ -17685,7 +17698,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1139</v>
       </c>
@@ -17744,7 +17757,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>508</v>
       </c>
@@ -17803,7 +17816,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>380</v>
       </c>
@@ -17862,7 +17875,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1328</v>
       </c>
@@ -17921,7 +17934,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>188</v>
       </c>
@@ -17980,7 +17993,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>676</v>
       </c>
@@ -18039,7 +18052,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1389</v>
       </c>
@@ -18098,7 +18111,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -18157,7 +18170,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1072</v>
       </c>
@@ -18216,7 +18229,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>349</v>
       </c>
@@ -18275,7 +18288,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>207</v>
       </c>
@@ -18334,7 +18347,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1093</v>
       </c>
@@ -18393,7 +18406,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>90</v>
       </c>
@@ -18452,7 +18465,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>579</v>
       </c>
@@ -18511,7 +18524,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>192</v>
       </c>
@@ -18570,7 +18583,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>530</v>
       </c>
@@ -18629,7 +18642,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>502</v>
       </c>
@@ -18688,7 +18701,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>892</v>
       </c>
@@ -18747,7 +18760,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1171</v>
       </c>
@@ -18806,7 +18819,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>464</v>
       </c>
@@ -18865,7 +18878,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>172</v>
       </c>
@@ -18924,7 +18937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>465</v>
       </c>
@@ -18983,7 +18996,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1330</v>
       </c>
@@ -19042,7 +19055,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>348</v>
       </c>
@@ -19101,7 +19114,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>520</v>
       </c>
@@ -19160,7 +19173,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1060</v>
       </c>
@@ -19219,7 +19232,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>406</v>
       </c>
@@ -19278,7 +19291,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -19337,7 +19350,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1357</v>
       </c>
@@ -19396,7 +19409,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>946</v>
       </c>
@@ -19455,7 +19468,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>709</v>
       </c>
@@ -19514,7 +19527,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>351</v>
       </c>
@@ -19573,7 +19586,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>248</v>
       </c>
@@ -19632,7 +19645,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>164</v>
       </c>
@@ -19691,7 +19704,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1271</v>
       </c>
@@ -19750,7 +19763,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>844</v>
       </c>
@@ -19809,7 +19822,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1367</v>
       </c>
@@ -19868,7 +19881,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>642</v>
       </c>
@@ -19927,7 +19940,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -19986,7 +19999,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1217</v>
       </c>
@@ -20045,7 +20058,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>771</v>
       </c>
@@ -20104,7 +20117,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>939</v>
       </c>
@@ -20163,7 +20176,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1136</v>
       </c>
@@ -20222,7 +20235,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>648</v>
       </c>
@@ -20281,7 +20294,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>885</v>
       </c>
@@ -20340,7 +20353,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1062</v>
       </c>
@@ -20399,7 +20412,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1131</v>
       </c>
@@ -20458,7 +20471,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>257</v>
       </c>
@@ -20517,7 +20530,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1106</v>
       </c>
@@ -20576,7 +20589,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1167</v>
       </c>
@@ -20635,7 +20648,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>382</v>
       </c>
@@ -20694,7 +20707,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>82</v>
       </c>
@@ -20753,7 +20766,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>966</v>
       </c>
@@ -20812,7 +20825,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1273</v>
       </c>
@@ -20871,7 +20884,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -20930,7 +20943,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1277</v>
       </c>
@@ -20989,7 +21002,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>929</v>
       </c>
@@ -21048,7 +21061,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>523</v>
       </c>
@@ -21107,7 +21120,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1315</v>
       </c>
@@ -21166,7 +21179,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1013</v>
       </c>
@@ -21225,7 +21238,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>698</v>
       </c>
@@ -21284,7 +21297,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>76</v>
       </c>
@@ -21343,7 +21356,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>716</v>
       </c>
@@ -21402,7 +21415,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>619</v>
       </c>
@@ -21461,7 +21474,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1329</v>
       </c>
@@ -21520,7 +21533,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>219</v>
       </c>
@@ -21579,7 +21592,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>408</v>
       </c>
@@ -21638,7 +21651,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1246</v>
       </c>
@@ -21697,7 +21710,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>971</v>
       </c>
@@ -21756,7 +21769,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -21815,7 +21828,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>882</v>
       </c>
@@ -21874,7 +21887,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1035</v>
       </c>
@@ -21933,7 +21946,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1170</v>
       </c>
@@ -21992,7 +22005,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1272</v>
       </c>
@@ -22051,7 +22064,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1276</v>
       </c>
@@ -22110,7 +22123,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>124</v>
       </c>
@@ -22169,7 +22182,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>352</v>
       </c>
@@ -22228,7 +22241,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>38</v>
       </c>
@@ -22287,7 +22300,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>147</v>
       </c>
@@ -22346,7 +22359,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>402</v>
       </c>
@@ -22405,7 +22418,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1033</v>
       </c>
@@ -22464,7 +22477,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>491</v>
       </c>
@@ -22523,7 +22536,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>509</v>
       </c>
@@ -22582,7 +22595,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>513</v>
       </c>
@@ -22641,7 +22654,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1220</v>
       </c>
@@ -22700,7 +22713,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>187</v>
       </c>
@@ -22759,7 +22772,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1000</v>
       </c>
@@ -22818,7 +22831,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>203</v>
       </c>
@@ -22877,7 +22890,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>197</v>
       </c>
@@ -22936,7 +22949,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>965</v>
       </c>
@@ -22995,7 +23008,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1142</v>
       </c>
@@ -23054,7 +23067,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>868</v>
       </c>
@@ -23113,7 +23126,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>862</v>
       </c>
@@ -23172,7 +23185,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1104</v>
       </c>
@@ -23231,7 +23244,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>26</v>
       </c>
@@ -23290,7 +23303,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>338</v>
       </c>
@@ -23349,7 +23362,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -23408,7 +23421,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1191</v>
       </c>
@@ -23467,7 +23480,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>119</v>
       </c>
@@ -23526,7 +23539,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>822</v>
       </c>
@@ -23585,7 +23598,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1030</v>
       </c>
@@ -23644,7 +23657,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>815</v>
       </c>
@@ -23703,7 +23716,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>170</v>
       </c>
@@ -23762,7 +23775,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -23821,7 +23834,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>148</v>
       </c>
@@ -23880,7 +23893,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>344</v>
       </c>
@@ -23939,7 +23952,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>541</v>
       </c>
@@ -23998,7 +24011,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>955</v>
       </c>
@@ -24057,7 +24070,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1320</v>
       </c>
@@ -24116,7 +24129,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -24175,7 +24188,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>666</v>
       </c>
@@ -24234,7 +24247,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>184</v>
       </c>
@@ -24293,7 +24306,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>144</v>
       </c>
@@ -24352,7 +24365,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>231</v>
       </c>
@@ -24411,7 +24424,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1199</v>
       </c>
@@ -24470,7 +24483,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1244</v>
       </c>
@@ -24529,7 +24542,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1324</v>
       </c>
@@ -24588,7 +24601,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>715</v>
       </c>
@@ -24647,7 +24660,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>275</v>
       </c>
@@ -24706,7 +24719,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>787</v>
       </c>
@@ -24765,7 +24778,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>754</v>
       </c>
@@ -24824,7 +24837,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>80</v>
       </c>
@@ -24883,7 +24896,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1351</v>
       </c>
@@ -24942,7 +24955,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>934</v>
       </c>
@@ -25001,7 +25014,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1158</v>
       </c>
@@ -25060,7 +25073,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>752</v>
       </c>
@@ -25119,7 +25132,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1345</v>
       </c>
@@ -25178,7 +25191,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>59</v>
       </c>
@@ -25237,7 +25250,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>949</v>
       </c>
@@ -25296,7 +25309,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>416</v>
       </c>
@@ -25355,7 +25368,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>641</v>
       </c>
@@ -25414,7 +25427,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>222</v>
       </c>
@@ -25473,7 +25486,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>235</v>
       </c>
@@ -25532,7 +25545,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1314</v>
       </c>
@@ -25591,7 +25604,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1085</v>
       </c>
@@ -25650,7 +25663,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>218</v>
       </c>
@@ -25709,7 +25722,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>210</v>
       </c>
@@ -25768,7 +25781,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>808</v>
       </c>
@@ -25827,7 +25840,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>429</v>
       </c>
@@ -25886,7 +25899,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>12</v>
       </c>
@@ -25945,7 +25958,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>423</v>
       </c>
@@ -26004,7 +26017,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1235</v>
       </c>
@@ -26063,7 +26076,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>265</v>
       </c>
@@ -26122,7 +26135,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>48</v>
       </c>
@@ -26181,7 +26194,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>571</v>
       </c>
@@ -26240,7 +26253,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>533</v>
       </c>
@@ -26299,7 +26312,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>252</v>
       </c>
@@ -26358,7 +26371,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>909</v>
       </c>
@@ -26417,7 +26430,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>694</v>
       </c>
@@ -26476,7 +26489,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>256</v>
       </c>
@@ -26535,7 +26548,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1293</v>
       </c>
@@ -26594,7 +26607,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>721</v>
       </c>
@@ -26653,7 +26666,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1247</v>
       </c>
@@ -26712,7 +26725,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1347</v>
       </c>
@@ -26771,7 +26784,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>847</v>
       </c>
@@ -26830,7 +26843,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>866</v>
       </c>
@@ -26889,7 +26902,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>866</v>
       </c>
@@ -26948,7 +26961,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1253</v>
       </c>
@@ -27007,7 +27020,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>357</v>
       </c>
@@ -27066,7 +27079,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>968</v>
       </c>
@@ -27125,7 +27138,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>229</v>
       </c>
@@ -27184,7 +27197,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1003</v>
       </c>
@@ -27243,7 +27256,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>206</v>
       </c>
@@ -27302,7 +27315,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>905</v>
       </c>
@@ -27361,7 +27374,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>741</v>
       </c>
@@ -27420,7 +27433,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>92</v>
       </c>
@@ -27479,7 +27492,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>233</v>
       </c>
@@ -27538,7 +27551,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>791</v>
       </c>
@@ -27597,7 +27610,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>842</v>
       </c>
@@ -27656,7 +27669,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>97</v>
       </c>
@@ -27715,7 +27728,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>604</v>
       </c>
@@ -27774,7 +27787,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>289</v>
       </c>
@@ -27833,7 +27846,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>274</v>
       </c>
@@ -27892,7 +27905,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>449</v>
       </c>
@@ -27951,7 +27964,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>152</v>
       </c>
@@ -28010,7 +28023,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>108</v>
       </c>
@@ -28069,7 +28082,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1270</v>
       </c>
@@ -28128,7 +28141,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1037</v>
       </c>
@@ -28187,7 +28200,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1259</v>
       </c>
@@ -28246,7 +28259,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1323</v>
       </c>
@@ -28305,7 +28318,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1393</v>
       </c>
@@ -28364,7 +28377,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1370</v>
       </c>
@@ -28423,7 +28436,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1311</v>
       </c>
@@ -28482,7 +28495,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>60</v>
       </c>
@@ -28541,7 +28554,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>789</v>
       </c>
@@ -28600,7 +28613,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>478</v>
       </c>
@@ -28659,7 +28672,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>67</v>
       </c>
@@ -28718,7 +28731,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>932</v>
       </c>
@@ -28777,7 +28790,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1019</v>
       </c>
@@ -28836,7 +28849,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>475</v>
       </c>
@@ -28895,7 +28908,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1228</v>
       </c>
@@ -28954,7 +28967,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>94</v>
       </c>
@@ -29013,7 +29026,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>238</v>
       </c>
@@ -29072,7 +29085,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1307</v>
       </c>
@@ -29131,7 +29144,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>281</v>
       </c>
@@ -29190,7 +29203,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>695</v>
       </c>
@@ -29249,7 +29262,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1365</v>
       </c>
@@ -29308,7 +29321,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1278</v>
       </c>
@@ -29367,7 +29380,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1043</v>
       </c>
@@ -29426,7 +29439,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1303</v>
       </c>
@@ -29485,7 +29498,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>45</v>
       </c>
@@ -29544,7 +29557,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>61</v>
       </c>
@@ -29603,7 +29616,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>667</v>
       </c>
@@ -29662,7 +29675,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>422</v>
       </c>
@@ -29721,7 +29734,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1260</v>
       </c>
@@ -29780,7 +29793,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>825</v>
       </c>
@@ -29839,7 +29852,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>950</v>
       </c>
@@ -29898,7 +29911,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1028</v>
       </c>
@@ -29957,7 +29970,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -30016,7 +30029,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>310</v>
       </c>
@@ -30075,7 +30088,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1017</v>
       </c>
@@ -30134,7 +30147,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>105</v>
       </c>
@@ -30193,7 +30206,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>663</v>
       </c>
@@ -30252,7 +30265,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1180</v>
       </c>
@@ -30311,7 +30324,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>292</v>
       </c>
@@ -30370,7 +30383,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1071</v>
       </c>
@@ -30429,7 +30442,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1076</v>
       </c>
@@ -30488,7 +30501,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1103</v>
       </c>
@@ -30547,7 +30560,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1181</v>
       </c>
@@ -30606,7 +30619,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1225</v>
       </c>
@@ -30665,7 +30678,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>98</v>
       </c>
@@ -30724,7 +30737,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1218</v>
       </c>
@@ -30783,7 +30796,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2</v>
       </c>
@@ -30842,7 +30855,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1384</v>
       </c>
@@ -30901,7 +30914,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>737</v>
       </c>
@@ -30960,7 +30973,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1178</v>
       </c>
@@ -31019,7 +31032,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1346</v>
       </c>
@@ -31078,7 +31091,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>33</v>
       </c>
@@ -31137,7 +31150,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>725</v>
       </c>
@@ -31196,7 +31209,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>226</v>
       </c>
@@ -31255,7 +31268,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>211</v>
       </c>
